--- a/01_Paradigms/COG-ED/Stimuli/ED_Steps.xlsx
+++ b/01_Paradigms/COG-ED/Stimuli/ED_Steps.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Documents\04_Projekte\01_COG-ED_Revision\Stimuli\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Documents\04_Projekte\01_COG-ED_Revision\CAD\01_Paradigms\COG-ED\Stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -345,10 +345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -391,11 +391,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01_Paradigms/COG-ED/Stimuli/ED_Steps.xlsx
+++ b/01_Paradigms/COG-ED/Stimuli/ED_Steps.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20484" windowHeight="5892"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5895"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -348,46 +349,46 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.5546875" style="1"/>
+    <col min="1" max="2" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
     </row>
